--- a/data/raw/Flying/tmp/Ib_true_RT_ID_table.xlsx
+++ b/data/raw/Flying/tmp/Ib_true_RT_ID_table.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="309">
   <si>
     <t xml:space="preserve">Peak</t>
   </si>
@@ -1059,12 +1059,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1077,10 +1073,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1167,11 +1159,13 @@
   </sheetPr>
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B234" activeCellId="0" sqref="B234"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B197" activeCellId="0" sqref="B197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.34"/>
   </cols>
@@ -4029,7 +4023,7 @@
       <c r="A114" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C114" s="0" t="n">
@@ -5449,7 +5443,7 @@
       <c r="A162" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C162" s="0" t="n">
@@ -5483,7 +5477,7 @@
       <c r="A164" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C164" s="0" t="n">
@@ -5979,7 +5973,7 @@
       <c r="A181" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C181" s="0" t="n">
@@ -5997,16 +5991,16 @@
       <c r="H181" s="0" t="n">
         <v>38.454</v>
       </c>
-      <c r="I181" s="4" t="n">
+      <c r="I181" s="3" t="n">
         <v>38.605</v>
       </c>
-      <c r="J181" s="4" t="n">
+      <c r="J181" s="3" t="n">
         <v>38.633</v>
       </c>
-      <c r="K181" s="4" t="n">
+      <c r="K181" s="3" t="n">
         <v>38.619</v>
       </c>
-      <c r="M181" s="4" t="n">
+      <c r="M181" s="3" t="n">
         <v>38.612</v>
       </c>
     </row>
@@ -6035,7 +6029,7 @@
       <c r="H182" s="0" t="n">
         <v>38.723</v>
       </c>
-      <c r="I182" s="5" t="n">
+      <c r="I182" s="0" t="n">
         <v>38.695</v>
       </c>
       <c r="J182" s="0" t="n">
@@ -6134,7 +6128,7 @@
       <c r="A185" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C185" s="0" t="n">
@@ -6564,6 +6558,9 @@
       <c r="A199" s="0" t="s">
         <v>234</v>
       </c>
+      <c r="B199" s="0" t="s">
+        <v>232</v>
+      </c>
       <c r="C199" s="0" t="n">
         <v>41.4786666666667</v>
       </c>
@@ -6651,7 +6648,7 @@
       <c r="A202" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C202" s="0" t="n">
@@ -7058,7 +7055,7 @@
       <c r="H216" s="0" t="n">
         <v>43.908</v>
       </c>
-      <c r="I216" s="5" t="n">
+      <c r="I216" s="0" t="n">
         <v>43.963</v>
       </c>
       <c r="J216" s="0" t="n">
@@ -7067,7 +7064,7 @@
       <c r="K216" s="0" t="n">
         <v>43.949</v>
       </c>
-      <c r="M216" s="5" t="n">
+      <c r="M216" s="0" t="n">
         <v>43.949</v>
       </c>
     </row>
@@ -7197,7 +7194,7 @@
       <c r="A221" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="4" t="s">
         <v>264</v>
       </c>
       <c r="C221" s="0" t="n">
@@ -7499,7 +7496,7 @@
       <c r="A231" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="1" t="s">
         <v>277</v>
       </c>
       <c r="C231" s="0" t="n">
@@ -7579,16 +7576,16 @@
       <c r="H233" s="0" t="n">
         <v>46.591</v>
       </c>
-      <c r="I233" s="5" t="n">
+      <c r="I233" s="0" t="n">
         <v>46.639</v>
       </c>
       <c r="J233" s="0" t="n">
         <v>46.597</v>
       </c>
-      <c r="K233" s="5" t="n">
+      <c r="K233" s="0" t="n">
         <v>46.646</v>
       </c>
-      <c r="M233" s="5" t="n">
+      <c r="M233" s="0" t="n">
         <v>46.639</v>
       </c>
     </row>
